--- a/实验内容/实验四/测试检查单/配置部分单元测试.xlsx
+++ b/实验内容/实验四/测试检查单/配置部分单元测试.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -287,6 +287,10 @@
   </si>
   <si>
     <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配置部分单元测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -761,7 +765,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B1" sqref="B1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -782,7 +786,9 @@
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>

--- a/实验内容/实验四/测试检查单/配置部分单元测试.xlsx
+++ b/实验内容/实验四/测试检查单/配置部分单元测试.xlsx
@@ -66,10 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>是否通过测试(P/S)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未通过可能原因</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -291,6 +287,10 @@
   </si>
   <si>
     <t>配置部分单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否通过测试(P/F)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -787,7 +787,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="9"/>
@@ -831,7 +831,7 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
@@ -846,16 +846,16 @@
         <v>5</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="42.75">
@@ -863,32 +863,32 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>23</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>26</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="K4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="57">
@@ -896,32 +896,32 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="K5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="42.75">
@@ -929,32 +929,32 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>36</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="42.75">
@@ -962,31 +962,31 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="G7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="H7" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="42.75">
@@ -994,32 +994,32 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
         <v>46</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="71.25">
@@ -1027,34 +1027,34 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
         <v>50</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="G9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="I9" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="42.75">
@@ -1062,34 +1062,34 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
         <v>56</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="F10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="G10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="H10" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="42.75">
@@ -1097,34 +1097,34 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
         <v>61</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="F11" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="G11" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="H11" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
